--- a/voting_codes.xlsx
+++ b/voting_codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Dokument\voting-vg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D441B23F-AFFB-4AA5-A499-63B504B1C669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383627B1-1B52-47DE-A739-C31EF6C0915A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -337,10 +337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:B3"/>
+  <dimension ref="B1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -360,6 +360,11 @@
         <v>333333</v>
       </c>
     </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>444444</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/voting_codes.xlsx
+++ b/voting_codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Dokument\voting-vg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383627B1-1B52-47DE-A739-C31EF6C0915A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E836D70-2ABD-4D39-9B22-A48FD60E4CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -337,32 +337,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:B4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
         <v>111111</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>222222</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>333333</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>444444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>

--- a/voting_codes.xlsx
+++ b/voting_codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Dokument\voting-vg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E836D70-2ABD-4D39-9B22-A48FD60E4CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D85B273-42B3-4380-BBBF-1834786E2628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -337,10 +337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -362,11 +362,6 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>444444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
         <v>123456</v>
       </c>
     </row>

--- a/voting_codes.xlsx
+++ b/voting_codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Dokument\voting-vg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D85B273-42B3-4380-BBBF-1834786E2628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86911325-6C05-4A77-AEDA-3CDA3AFFCE60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,7 +340,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/voting_codes.xlsx
+++ b/voting_codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Dokument\voting-vg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86911325-6C05-4A77-AEDA-3CDA3AFFCE60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912DBB69-1BF0-4A60-92D8-364630F80A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,10 +337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -360,11 +360,6 @@
         <v>333333</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>123456</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/voting_codes.xlsx
+++ b/voting_codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Dokument\voting-vg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912DBB69-1BF0-4A60-92D8-364630F80A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6053525C-F453-490B-966C-B6966C5DC227}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -337,10 +337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -360,6 +360,11 @@
         <v>333333</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>777777</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
